--- a/Metadata/LoggerTables_Oceano.xlsx
+++ b/Metadata/LoggerTables_Oceano.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="13760" tabRatio="500"/>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>W1, W2, W3, W4</t>
-  </si>
-  <si>
-    <t>L1, L2</t>
   </si>
   <si>
     <t>W5, W6, W7, W8, W9</t>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>Variables</t>
+  </si>
+  <si>
+    <t>L2, L1</t>
   </si>
 </sst>
 </file>
@@ -1515,8 +1515,8 @@
   <dimension ref="A1:F277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E123" sqref="E123"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1542,10 +1542,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1">
@@ -1559,10 +1559,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="F2" s="5">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>42139</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -1636,13 +1636,13 @@
         <v>42139</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
@@ -1656,7 +1656,7 @@
         <v>42139</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>12</v>
@@ -1676,13 +1676,13 @@
         <v>42139</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
@@ -1696,13 +1696,13 @@
         <v>42139</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F9" s="5">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>42139</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>12</v>
@@ -1736,13 +1736,13 @@
         <v>42139</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="5">
         <v>0</v>
@@ -1756,13 +1756,13 @@
         <v>42139</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
@@ -1776,13 +1776,13 @@
         <v>42139</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="F13" s="5">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
@@ -1816,13 +1816,13 @@
         <v>42139</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
@@ -1842,7 +1842,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" s="5">
         <v>1</v>
@@ -1856,13 +1856,13 @@
         <v>42139</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17" s="5">
         <v>1</v>
@@ -1879,10 +1879,10 @@
         <v>11</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="F18" s="5">
         <v>0</v>
@@ -1936,13 +1936,13 @@
         <v>42140</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" s="5">
         <v>0</v>
@@ -1956,13 +1956,13 @@
         <v>42140</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F22" s="5">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>42140</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>12</v>
@@ -1996,13 +1996,13 @@
         <v>42140</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F24" s="5">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>42140</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F25" s="5">
         <v>1</v>
@@ -2036,13 +2036,13 @@
         <v>42140</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="F26" s="5">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F27" s="5">
         <v>1</v>
@@ -2082,7 +2082,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F28" s="5">
         <v>1</v>
@@ -2099,10 +2099,10 @@
         <v>11</v>
       </c>
       <c r="D29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="F29" s="5">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F32" s="5">
         <v>1</v>
@@ -2182,7 +2182,7 @@
         <v>5</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F33" s="5">
         <v>1</v>
@@ -2199,10 +2199,10 @@
         <v>11</v>
       </c>
       <c r="D34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="F34" s="5">
         <v>0</v>
@@ -2256,13 +2256,13 @@
         <v>42142</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F37" s="5">
         <v>0</v>
@@ -2276,13 +2276,13 @@
         <v>42142</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F38" s="5">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>42142</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>12</v>
@@ -2316,13 +2316,13 @@
         <v>42142</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F40" s="5">
         <v>0</v>
@@ -2336,13 +2336,13 @@
         <v>42142</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F41" s="5">
         <v>1</v>
@@ -2362,7 +2362,7 @@
         <v>5</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F42" s="5">
         <v>1</v>
@@ -2382,7 +2382,7 @@
         <v>5</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F43" s="5">
         <v>1</v>
@@ -2399,10 +2399,10 @@
         <v>11</v>
       </c>
       <c r="D44" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="F44" s="5">
         <v>0</v>
@@ -2419,10 +2419,10 @@
         <v>11</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F45" s="5">
         <v>0</v>
@@ -2476,13 +2476,13 @@
         <v>42143</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F48" s="5">
         <v>0</v>
@@ -2496,13 +2496,13 @@
         <v>42143</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F49" s="5">
         <v>0</v>
@@ -2516,7 +2516,7 @@
         <v>42143</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>12</v>
@@ -2536,13 +2536,13 @@
         <v>42143</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F51" s="5">
         <v>0</v>
@@ -2556,13 +2556,13 @@
         <v>42143</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F52" s="5">
         <v>1</v>
@@ -2576,13 +2576,13 @@
         <v>42143</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F53" s="5">
         <v>0</v>
@@ -2596,13 +2596,13 @@
         <v>42143</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F54" s="5">
         <v>1</v>
@@ -2616,13 +2616,13 @@
         <v>42143</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F55" s="5">
         <v>0</v>
@@ -2636,13 +2636,13 @@
         <v>42143</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F56" s="5">
         <v>1</v>
@@ -2656,13 +2656,13 @@
         <v>42143</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F57" s="5">
         <v>0</v>
@@ -2676,13 +2676,13 @@
         <v>42143</v>
       </c>
       <c r="C58" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="E58" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="F58" s="5">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>5</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F59" s="5">
         <v>1</v>
@@ -2722,7 +2722,7 @@
         <v>5</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F60" s="5">
         <v>1</v>
@@ -2739,10 +2739,10 @@
         <v>11</v>
       </c>
       <c r="D61" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="F61" s="5">
         <v>0</v>
@@ -2796,13 +2796,13 @@
         <v>42144</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F64" s="5">
         <v>0</v>
@@ -2816,13 +2816,13 @@
         <v>42144</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F65" s="5">
         <v>1</v>
@@ -2836,13 +2836,13 @@
         <v>42144</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F66" s="5">
         <v>0</v>
@@ -2856,13 +2856,13 @@
         <v>42144</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F67" s="5">
         <v>1</v>
@@ -2882,7 +2882,7 @@
         <v>5</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F68" s="5">
         <v>1</v>
@@ -2902,7 +2902,7 @@
         <v>5</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F69" s="5">
         <v>1</v>
@@ -2919,10 +2919,10 @@
         <v>11</v>
       </c>
       <c r="D70" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="F70" s="5">
         <v>0</v>
@@ -2976,13 +2976,13 @@
         <v>42145</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F73" s="5">
         <v>0</v>
@@ -2996,13 +2996,13 @@
         <v>42145</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F74" s="5">
         <v>1</v>
@@ -3016,13 +3016,13 @@
         <v>42145</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F75" s="5">
         <v>0</v>
@@ -3036,13 +3036,13 @@
         <v>42145</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F76" s="5">
         <v>1</v>
@@ -3062,7 +3062,7 @@
         <v>5</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F77" s="5">
         <v>1</v>
@@ -3082,7 +3082,7 @@
         <v>5</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F78" s="5">
         <v>1</v>
@@ -3099,10 +3099,10 @@
         <v>11</v>
       </c>
       <c r="D79" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="F79" s="5">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>42146</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F82" s="5">
         <v>0</v>
@@ -3176,13 +3176,13 @@
         <v>42146</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F83" s="5">
         <v>1</v>
@@ -3196,13 +3196,13 @@
         <v>42146</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F84" s="5">
         <v>0</v>
@@ -3216,13 +3216,13 @@
         <v>42146</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F85" s="5">
         <v>1</v>
@@ -3242,7 +3242,7 @@
         <v>5</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F86" s="5">
         <v>1</v>
@@ -3262,7 +3262,7 @@
         <v>5</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F87" s="5">
         <v>1</v>
@@ -3279,10 +3279,10 @@
         <v>11</v>
       </c>
       <c r="D88" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="F88" s="5">
         <v>0</v>
@@ -3299,10 +3299,10 @@
         <v>11</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F89" s="5">
         <v>0</v>
@@ -3356,13 +3356,13 @@
         <v>42147</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F92" s="5">
         <v>0</v>
@@ -3376,13 +3376,13 @@
         <v>42147</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F93" s="5">
         <v>0</v>
@@ -3396,7 +3396,7 @@
         <v>42147</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>12</v>
@@ -3416,13 +3416,13 @@
         <v>42147</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F95" s="5">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>42147</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F96" s="5">
         <v>1</v>
@@ -3456,13 +3456,13 @@
         <v>42147</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F97" s="5">
         <v>0</v>
@@ -3476,13 +3476,13 @@
         <v>42147</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F98" s="5">
         <v>1</v>
@@ -3496,13 +3496,13 @@
         <v>42147</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F99" s="5">
         <v>0</v>
@@ -3516,13 +3516,13 @@
         <v>42147</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F100" s="5">
         <v>1</v>
@@ -3536,13 +3536,13 @@
         <v>42147</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F101" s="5">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>42147</v>
       </c>
       <c r="C102" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="E102" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="F102" s="5">
         <v>0</v>
@@ -3582,7 +3582,7 @@
         <v>5</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F103" s="5">
         <v>1</v>
@@ -3602,7 +3602,7 @@
         <v>5</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F104" s="5">
         <v>1</v>
@@ -3619,10 +3619,10 @@
         <v>11</v>
       </c>
       <c r="D105" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E105" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="F105" s="5">
         <v>0</v>
@@ -3639,10 +3639,10 @@
         <v>11</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F106" s="5">
         <v>0</v>
@@ -3696,13 +3696,13 @@
         <v>42148</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F109" s="5">
         <v>0</v>
@@ -3716,13 +3716,13 @@
         <v>42148</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F110" s="5">
         <v>0</v>
@@ -3736,13 +3736,13 @@
         <v>42148</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F111" s="5">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>42148</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>12</v>
@@ -3776,13 +3776,13 @@
         <v>42148</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F113" s="5">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>42148</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F114" s="5">
         <v>0</v>
@@ -3816,13 +3816,13 @@
         <v>42148</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F115" s="5">
         <v>0</v>
@@ -3836,13 +3836,13 @@
         <v>42148</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F116" s="5">
         <v>0</v>
@@ -3856,13 +3856,13 @@
         <v>42148</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F117" s="5">
         <v>0</v>
@@ -3876,13 +3876,13 @@
         <v>42148</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F118" s="5">
         <v>0</v>
@@ -3896,13 +3896,13 @@
         <v>42148</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F119" s="5">
         <v>0</v>
@@ -3916,13 +3916,13 @@
         <v>42148</v>
       </c>
       <c r="C120" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D120" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="E120" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="F120" s="5">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>5</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F121" s="5">
         <v>0</v>
@@ -3962,7 +3962,7 @@
         <v>5</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F122" s="5">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>11</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F123" s="9">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>42150</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F126" s="9">
         <v>0</v>
@@ -4056,7 +4056,7 @@
         <v>42150</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>12</v>
@@ -4076,13 +4076,13 @@
         <v>42150</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F128" s="9">
         <v>0</v>
@@ -4096,13 +4096,13 @@
         <v>42150</v>
       </c>
       <c r="C129" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="E129" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="F129" s="5">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>5</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F130" s="5">
         <v>0</v>
@@ -4142,7 +4142,7 @@
         <v>5</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F131" s="5">
         <v>0</v>
@@ -4159,10 +4159,10 @@
         <v>11</v>
       </c>
       <c r="D132" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E132" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="F132" s="9">
         <v>0</v>
@@ -4179,10 +4179,10 @@
         <v>11</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F133" s="9">
         <v>0</v>
@@ -4236,13 +4236,13 @@
         <v>42151</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F136" s="9">
         <v>0</v>
@@ -4256,13 +4256,13 @@
         <v>42151</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F137" s="9">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>42151</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>12</v>
@@ -4296,13 +4296,13 @@
         <v>42151</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F139" s="9">
         <v>0</v>
@@ -4316,13 +4316,13 @@
         <v>42151</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F140" s="9">
         <v>0</v>
@@ -4336,13 +4336,13 @@
         <v>42151</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F141" s="9">
         <v>0</v>
@@ -4356,13 +4356,13 @@
         <v>42151</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F142" s="9">
         <v>0</v>
@@ -4376,13 +4376,13 @@
         <v>42151</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F143" s="9">
         <v>0</v>
@@ -4396,13 +4396,13 @@
         <v>42151</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F144" s="9">
         <v>0</v>
@@ -4416,13 +4416,13 @@
         <v>42151</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F145" s="9">
         <v>0</v>
@@ -4436,13 +4436,13 @@
         <v>42151</v>
       </c>
       <c r="C146" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D146" s="5" t="s">
+      <c r="E146" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="E146" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="F146" s="9">
         <v>0</v>
@@ -4462,7 +4462,7 @@
         <v>5</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F147" s="9">
         <v>0</v>
@@ -4482,7 +4482,7 @@
         <v>5</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F148" s="9">
         <v>0</v>
@@ -4499,10 +4499,10 @@
         <v>11</v>
       </c>
       <c r="D149" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E149" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="F149" s="9">
         <v>0</v>
@@ -4519,10 +4519,10 @@
         <v>11</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F150" s="9">
         <v>0</v>
@@ -4576,13 +4576,13 @@
         <v>42152</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F153" s="9">
         <v>0</v>
@@ -4596,13 +4596,13 @@
         <v>42152</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F154" s="9">
         <v>0</v>
@@ -4616,7 +4616,7 @@
         <v>42152</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>12</v>
@@ -4636,13 +4636,13 @@
         <v>42152</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F156" s="9">
         <v>0</v>
@@ -4656,13 +4656,13 @@
         <v>42152</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F157" s="9">
         <v>0</v>
@@ -4676,13 +4676,13 @@
         <v>42152</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F158" s="9">
         <v>0</v>
@@ -4696,13 +4696,13 @@
         <v>42152</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F159" s="9">
         <v>0</v>
@@ -4716,13 +4716,13 @@
         <v>42152</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F160" s="9">
         <v>0</v>
@@ -4736,13 +4736,13 @@
         <v>42152</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F161" s="9">
         <v>0</v>
@@ -4756,13 +4756,13 @@
         <v>42152</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F162" s="9">
         <v>0</v>
@@ -4776,13 +4776,13 @@
         <v>42152</v>
       </c>
       <c r="C163" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D163" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D163" s="5" t="s">
+      <c r="E163" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="E163" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="F163" s="9">
         <v>0</v>
@@ -4802,7 +4802,7 @@
         <v>5</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F164" s="9">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>5</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F165" s="9">
         <v>0</v>
@@ -4839,10 +4839,10 @@
         <v>11</v>
       </c>
       <c r="D166" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E166" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E166" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="F166" s="9">
         <v>0</v>
@@ -4859,10 +4859,10 @@
         <v>11</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F167" s="9">
         <v>0</v>
@@ -4916,13 +4916,13 @@
         <v>42153</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F170" s="9">
         <v>0</v>
@@ -4936,13 +4936,13 @@
         <v>42153</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F171" s="9">
         <v>0</v>
@@ -4956,7 +4956,7 @@
         <v>42153</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>12</v>
@@ -4976,13 +4976,13 @@
         <v>42153</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F173" s="9">
         <v>0</v>
@@ -4996,13 +4996,13 @@
         <v>42153</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F174" s="9">
         <v>0</v>
@@ -5016,13 +5016,13 @@
         <v>42153</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F175" s="9">
         <v>0</v>
@@ -5036,13 +5036,13 @@
         <v>42153</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F176" s="9">
         <v>0</v>
@@ -5056,13 +5056,13 @@
         <v>42153</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F177" s="9">
         <v>0</v>
@@ -5076,13 +5076,13 @@
         <v>42153</v>
       </c>
       <c r="C178" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D178" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D178" s="5" t="s">
+      <c r="E178" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="E178" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="F178" s="9">
         <v>0</v>
@@ -5102,7 +5102,7 @@
         <v>5</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F179" s="9">
         <v>0</v>
@@ -5122,7 +5122,7 @@
         <v>5</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F180" s="9">
         <v>0</v>
@@ -5139,10 +5139,10 @@
         <v>11</v>
       </c>
       <c r="D181" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E181" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E181" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="F181" s="9">
         <v>0</v>
@@ -5159,10 +5159,10 @@
         <v>11</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F182" s="9">
         <v>0</v>
@@ -5216,13 +5216,13 @@
         <v>42154</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F185" s="9">
         <v>0</v>
@@ -5236,13 +5236,13 @@
         <v>42154</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D186" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F186" s="9">
         <v>0</v>
@@ -5256,7 +5256,7 @@
         <v>42154</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>12</v>
@@ -5276,13 +5276,13 @@
         <v>42154</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F188" s="9">
         <v>0</v>
@@ -5296,13 +5296,13 @@
         <v>42154</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F189" s="9">
         <v>0</v>
@@ -5316,13 +5316,13 @@
         <v>42154</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F190" s="9">
         <v>0</v>
@@ -5336,13 +5336,13 @@
         <v>42154</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F191" s="9">
         <v>0</v>
@@ -5356,13 +5356,13 @@
         <v>42154</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F192" s="9">
         <v>0</v>
@@ -5376,13 +5376,13 @@
         <v>42154</v>
       </c>
       <c r="C193" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D193" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D193" s="5" t="s">
+      <c r="E193" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="E193" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="F193" s="9">
         <v>0</v>
@@ -5402,7 +5402,7 @@
         <v>5</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F194" s="9">
         <v>0</v>
@@ -5422,7 +5422,7 @@
         <v>5</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F195" s="9">
         <v>0</v>
@@ -5439,10 +5439,10 @@
         <v>11</v>
       </c>
       <c r="D196" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E196" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E196" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="F196" s="9">
         <v>0</v>
@@ -5459,10 +5459,10 @@
         <v>11</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F197" s="9">
         <v>0</v>
@@ -5516,13 +5516,13 @@
         <v>42155</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F200" s="9">
         <v>0</v>
@@ -5536,13 +5536,13 @@
         <v>42155</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D201" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F201" s="9">
         <v>0</v>
@@ -5556,13 +5556,13 @@
         <v>42155</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D202" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F202" s="9">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>42155</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D203" s="5" t="s">
         <v>12</v>
@@ -5596,13 +5596,13 @@
         <v>42155</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F204" s="9">
         <v>0</v>
@@ -5616,13 +5616,13 @@
         <v>42155</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D205" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F205" s="9">
         <v>0</v>
@@ -5636,13 +5636,13 @@
         <v>42155</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F206" s="9">
         <v>0</v>
@@ -5656,13 +5656,13 @@
         <v>42155</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D207" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F207" s="9">
         <v>0</v>
@@ -5676,13 +5676,13 @@
         <v>42155</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F208" s="9">
         <v>0</v>
@@ -5696,13 +5696,13 @@
         <v>42155</v>
       </c>
       <c r="C209" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D209" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D209" s="5" t="s">
+      <c r="E209" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="E209" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="F209" s="9">
         <v>0</v>
@@ -5722,7 +5722,7 @@
         <v>5</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F210" s="9">
         <v>0</v>
@@ -5742,7 +5742,7 @@
         <v>5</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F211" s="9">
         <v>0</v>
@@ -5759,10 +5759,10 @@
         <v>11</v>
       </c>
       <c r="D212" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E212" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E212" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="F212" s="9">
         <v>0</v>
@@ -5779,10 +5779,10 @@
         <v>11</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E213" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F213" s="9">
         <v>0</v>
@@ -5836,13 +5836,13 @@
         <v>42156</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F216" s="9">
         <v>0</v>
@@ -5856,13 +5856,13 @@
         <v>42156</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D217" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F217" s="9">
         <v>0</v>
@@ -5876,7 +5876,7 @@
         <v>42156</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D218" s="5" t="s">
         <v>12</v>
@@ -5896,13 +5896,13 @@
         <v>42156</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F219" s="9">
         <v>0</v>
@@ -5916,13 +5916,13 @@
         <v>42156</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D220" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F220" s="9">
         <v>0</v>
@@ -5936,13 +5936,13 @@
         <v>42156</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F221" s="9">
         <v>0</v>
@@ -5956,13 +5956,13 @@
         <v>42156</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D222" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F222" s="9">
         <v>0</v>
@@ -5976,13 +5976,13 @@
         <v>42156</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F223" s="9">
         <v>0</v>
@@ -5996,13 +5996,13 @@
         <v>42156</v>
       </c>
       <c r="C224" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D224" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D224" s="5" t="s">
+      <c r="E224" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="E224" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="F224" s="9">
         <v>0</v>
@@ -6022,7 +6022,7 @@
         <v>5</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F225" s="9">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>5</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F226" s="9">
         <v>0</v>
@@ -6059,10 +6059,10 @@
         <v>11</v>
       </c>
       <c r="D227" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E227" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E227" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="F227" s="5">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>11</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E228" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F228" s="5">
         <v>0</v>
@@ -6136,13 +6136,13 @@
         <v>42157</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F231" s="5">
         <v>0</v>
@@ -6156,13 +6156,13 @@
         <v>42157</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D232" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F232" s="5">
         <v>0</v>
@@ -6176,7 +6176,7 @@
         <v>42157</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D233" s="5" t="s">
         <v>12</v>
@@ -6196,13 +6196,13 @@
         <v>42157</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F234" s="5">
         <v>0</v>
@@ -6216,13 +6216,13 @@
         <v>42157</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D235" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F235" s="5">
         <v>0</v>
@@ -6236,13 +6236,13 @@
         <v>42157</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F236" s="5">
         <v>0</v>
@@ -6256,13 +6256,13 @@
         <v>42157</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D237" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F237" s="5">
         <v>0</v>
@@ -6276,13 +6276,13 @@
         <v>42157</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F238" s="5">
         <v>0</v>
@@ -6296,13 +6296,13 @@
         <v>42157</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D239" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F239" s="5">
         <v>0</v>
@@ -6316,13 +6316,13 @@
         <v>42157</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F240" s="5">
         <v>0</v>
@@ -6336,13 +6336,13 @@
         <v>42157</v>
       </c>
       <c r="C241" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D241" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D241" s="5" t="s">
+      <c r="E241" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="E241" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="F241" s="5">
         <v>0</v>
@@ -6362,7 +6362,7 @@
         <v>5</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F242" s="9">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>5</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F243" s="5">
         <v>0</v>
@@ -6399,10 +6399,10 @@
         <v>11</v>
       </c>
       <c r="D244" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E244" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E244" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="F244" s="5">
         <v>0</v>
@@ -6419,10 +6419,10 @@
         <v>11</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E245" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F245" s="5">
         <v>0</v>
@@ -6476,13 +6476,13 @@
         <v>42158</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F248" s="5">
         <v>0</v>
@@ -6496,13 +6496,13 @@
         <v>42158</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D249" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F249" s="5">
         <v>0</v>
@@ -6516,7 +6516,7 @@
         <v>42158</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D250" s="5" t="s">
         <v>12</v>
@@ -6536,13 +6536,13 @@
         <v>42158</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F251" s="5">
         <v>0</v>
@@ -6556,13 +6556,13 @@
         <v>42158</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D252" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F252" s="5">
         <v>0</v>
@@ -6576,13 +6576,13 @@
         <v>42158</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F253" s="5">
         <v>0</v>
@@ -6596,13 +6596,13 @@
         <v>42158</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D254" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F254" s="5">
         <v>0</v>
@@ -6616,13 +6616,13 @@
         <v>42158</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F255" s="5">
         <v>0</v>
@@ -6636,13 +6636,13 @@
         <v>42158</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D256" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F256" s="5">
         <v>0</v>
@@ -6656,13 +6656,13 @@
         <v>42158</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F257" s="5">
         <v>0</v>
@@ -6676,13 +6676,13 @@
         <v>42158</v>
       </c>
       <c r="C258" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D258" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D258" s="5" t="s">
+      <c r="E258" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="E258" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="F258" s="5">
         <v>0</v>
@@ -6702,7 +6702,7 @@
         <v>5</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F259" s="9">
         <v>0</v>
@@ -6722,7 +6722,7 @@
         <v>5</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F260" s="5">
         <v>0</v>
@@ -6739,10 +6739,10 @@
         <v>11</v>
       </c>
       <c r="D261" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E261" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E261" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="F261" s="5">
         <v>0</v>
@@ -6759,10 +6759,10 @@
         <v>11</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E262" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F262" s="5">
         <v>0</v>
@@ -6816,13 +6816,13 @@
         <v>42159</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F265" s="5">
         <v>0</v>
@@ -6836,13 +6836,13 @@
         <v>42159</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D266" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F266" s="5">
         <v>0</v>
@@ -6856,7 +6856,7 @@
         <v>42159</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D267" s="5" t="s">
         <v>12</v>
@@ -6876,13 +6876,13 @@
         <v>42159</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F268" s="5">
         <v>0</v>
@@ -6896,13 +6896,13 @@
         <v>42159</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D269" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F269" s="5">
         <v>0</v>
@@ -6916,13 +6916,13 @@
         <v>42159</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F270" s="5">
         <v>0</v>
@@ -6936,13 +6936,13 @@
         <v>42159</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D271" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F271" s="5">
         <v>0</v>
@@ -6956,13 +6956,13 @@
         <v>42159</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F272" s="5">
         <v>0</v>
@@ -6976,13 +6976,13 @@
         <v>42159</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D273" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F273" s="5">
         <v>0</v>
@@ -6996,13 +6996,13 @@
         <v>42159</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F274" s="5">
         <v>0</v>
@@ -7016,13 +7016,13 @@
         <v>42159</v>
       </c>
       <c r="C275" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D275" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D275" s="5" t="s">
+      <c r="E275" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="E275" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="F275" s="5">
         <v>0</v>
@@ -7042,7 +7042,7 @@
         <v>5</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F276" s="9">
         <v>0</v>
@@ -7062,7 +7062,7 @@
         <v>5</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F277" s="5">
         <v>0</v>
